--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py_buffer\pdf-miner\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,14 +102,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hot dog</t>
+    <t>hot dog1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,26 +241,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,23 +276,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,16 +455,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,7 +498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -554,7 +515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -571,7 +532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -588,7 +549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
